--- a/temporal_clustering/data/outputs/tables.xlsx
+++ b/temporal_clustering/data/outputs/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoatran/Desktop/NYU/IAQF2022/IAQF official /graphs and tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\常用\NYU\IAQF\IAQF22\temporal_clustering\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97BDA5A-717D-6543-810D-AF5A401E561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A4AB0-8774-48ED-A65B-C9D8E93C00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8595D4AE-A839-1340-9311-389AB74909BA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8595D4AE-A839-1340-9311-389AB74909BA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC training info" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>2018 train set</t>
   </si>
@@ -111,9 +109,6 @@
     <t>Name: training information for the temporal feature extraction</t>
   </si>
   <si>
-    <t>Reject H0 at 5%?</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -130,6 +125,18 @@
   </si>
   <si>
     <t>Name: Correlation of original features with fractionally differentiated features vs with integer-1 differencing</t>
+  </si>
+  <si>
+    <t>After 1 Year</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>After 4 Year</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject at 5%?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,13 +144,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,6 +191,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,29 +222,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,11 +670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38F49A4-2D39-604C-99B0-564C5DB3A924}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -550,1323 +683,1341 @@
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.48</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="E4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.155151835991123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="10"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.44</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>0.188377869166965</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.11</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>4.41E-2</v>
       </c>
-      <c r="E6" s="5">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.59235333273294899</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.18</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.41398130409503903</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.27</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E8" s="5">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.301202601368947</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.44</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E9" s="5">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.18763433465167001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>0.26</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="E10" s="5">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
         <v>0.34396447385749701</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>0.2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="E11" s="5">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.29509175531195603</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>0.1</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>60</v>
       </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.46178459335421101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>0.19</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>60</v>
       </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
         <v>0.34150744846493403</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>0.05</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>60</v>
       </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
         <v>0.52010266123535698</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>60</v>
       </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
         <v>0.29745730851707602</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" ht="18.45">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>0.44</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
         <v>0.14733780441702299</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:7" ht="18.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>0.44</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="E17" s="5">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.18048118486748599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:7" ht="18.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>0.12</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E18" s="5">
-        <v>20</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
         <v>0.57584899661432998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:7" ht="18.45">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>60</v>
       </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
         <v>0.378172629874586</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:7" ht="18.45">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0.24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="E20" s="5">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
         <v>0.293990070141462</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:7" ht="18.45">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>0.45</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="E21" s="5">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="E21" s="3">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
         <v>0.181566467972468</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:7" ht="18.45">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>0.25</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="E22" s="5">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
         <v>0.32397609162030899</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7" ht="18.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>0.18</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="E23" s="5">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
         <v>0.31873546905327399</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:7" ht="18.45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>0.1</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>60</v>
       </c>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
         <v>0.43760595964067001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:7" ht="18.45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>60</v>
       </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
         <v>0.38874554258698202</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>0.03</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>60</v>
       </c>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5">
         <v>0.52205272759403198</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>60</v>
       </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
         <v>0.28320273987184602</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:7" ht="18.45">
+      <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>0.54</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="E28" s="5">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="E28" s="3">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
         <v>0.13676048425929899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:7" ht="18.45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>0.54</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="E29" s="5">
-        <v>20</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="E29" s="3">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
         <v>0.14878525188091499</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>0.15</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="E30" s="5">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="3">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
         <v>8</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>0.47668392385931802</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>0.16</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="E31" s="5">
-        <v>20</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="E31" s="3">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
         <v>0.36809225055368899</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="10"/>
+      <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>0.26</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="E32" s="5">
-        <v>20</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="E32" s="3">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
         <v>0.28434716021732798</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>0.46</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>60</v>
       </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
         <v>0.17283694695509599</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>0.25</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E34" s="5">
-        <v>20</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="E34" s="3">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
         <v>0.307447481652664</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>0.2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E35" s="5">
-        <v>20</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="E35" s="3">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
         <v>0.30076415791857702</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>0.1</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>60</v>
       </c>
-      <c r="F36" s="5">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
         <v>0.40102686375880903</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="10"/>
+      <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>0.05</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>60</v>
       </c>
-      <c r="F37" s="5">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5">
         <v>0.44630797245978798</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="10"/>
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.03</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>60</v>
       </c>
-      <c r="F38" s="5">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5">
         <v>0.50818792937721302</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="10"/>
+      <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="5">
-        <v>20</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="E39" s="3">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
         <v>0.29640324136151103</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>0.52</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="E40" s="5">
-        <v>20</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="E40" s="3">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="5">
         <v>0.14350250708434001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="10"/>
+      <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>0.6</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="E41" s="5">
-        <v>20</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E41" s="3">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3">
         <v>3</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="5">
         <v>0.132486630648778</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="10"/>
+      <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>0.13</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="E42" s="5">
-        <v>20</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7">
+      <c r="E42" s="3">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5">
         <v>0.49293507293263999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="10"/>
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>0.12</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="E43" s="5">
-        <v>20</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="E43" s="3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5">
         <v>0.38470265887891397</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="10"/>
+      <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E44" s="5">
-        <v>20</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="E44" s="3">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5">
         <v>0.27611281873521898</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>0.48</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>60</v>
       </c>
-      <c r="F45" s="5">
-        <v>2</v>
-      </c>
-      <c r="G45" s="7">
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
         <v>0.14459451198801501</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="10"/>
+      <c r="B46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>0.25</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="E46" s="5">
-        <v>20</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2</v>
-      </c>
-      <c r="G46" s="7">
+      <c r="E46" s="3">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5">
         <v>0.314398114794815</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="10"/>
+      <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>0.22</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="E47" s="5">
-        <v>20</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2</v>
-      </c>
-      <c r="G47" s="7">
+      <c r="E47" s="3">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5">
         <v>0.27566682403162701</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="10"/>
+      <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>0.09</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>4.48E-2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>60</v>
       </c>
-      <c r="F48" s="5">
-        <v>2</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5">
         <v>0.39371542449117303</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="10"/>
+      <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>0.05</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>60</v>
       </c>
-      <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
         <v>0.47160678985818499</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="10"/>
+      <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>0.03</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <v>3.44E-2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>60</v>
       </c>
-      <c r="F50" s="5">
-        <v>2</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5">
         <v>0.51383299597169096</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="1:7">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="5">
         <v>0</v>
       </c>
-      <c r="E51" s="5">
-        <v>20</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="E51" s="3">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
         <v>0.316298735202663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD831FFE-6B17-A54E-BEC8-19D74AE26691}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:5" ht="15.45">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.45">
+      <c r="A3" s="21"/>
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.45">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="26">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.45">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="26">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.33889999999999998</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.45">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="D6" s="26">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.45">
+      <c r="A7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.45">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="26">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="9" spans="1:5" ht="15.45">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D9" s="26">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="10" spans="1:5" ht="15.45">
+      <c r="A10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.45">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2.47E-2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.32240000000000002</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.45">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="26">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="26">
         <v>2.07E-2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.45">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="26">
         <v>1.01E-2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="26">
         <v>0.05</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.45">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="26">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="26">
         <v>2.41E-2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.45">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="17">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
+      <c r="E15" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1875,156 +2026,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB765C62-4DFB-EA4A-9176-EE7FDF73C36D}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" zoomScale="162" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.45"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="16">
         <v>0.86080000000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="16">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="16">
         <v>0.85370000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="16">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>0.94740000000000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <v>0.26919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <v>0.9647</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="16">
         <v>0.92820000000000003</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="16">
         <v>0.89810000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="16">
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="16">
         <v>0.93310000000000004</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="16">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <v>0.94</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="16">
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="16">
         <v>0.98799999999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="16">
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="16">
         <v>0.93179999999999996</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="16">
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="17">
         <v>0.99480000000000002</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="17">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temporal_clustering/data/outputs/tables.xlsx
+++ b/temporal_clustering/data/outputs/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\常用\NYU\IAQF\IAQF22\temporal_clustering\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A4AB0-8774-48ED-A65B-C9D8E93C00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9AA1FD-D685-44A0-9260-50291CD24020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8595D4AE-A839-1340-9311-389AB74909BA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8595D4AE-A839-1340-9311-389AB74909BA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC training info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>2018 train set</t>
   </si>
@@ -118,35 +118,38 @@
     <t>Name: Refitting fractional differentiation model after 1 year vs 4 years</t>
   </si>
   <si>
-    <t>ffd correlation</t>
-  </si>
-  <si>
-    <t>d=1 correlation</t>
-  </si>
-  <si>
     <t>Name: Correlation of original features with fractionally differentiated features vs with integer-1 differencing</t>
   </si>
   <si>
     <t>After 1 Year</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject at 5%?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>After 4 Year</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Reject at 5%?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>FFD Correlation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d=1 Correlation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,13 +160,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -186,12 +182,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF303F9F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -199,8 +189,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -214,23 +224,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -243,22 +242,156 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -267,91 +400,131 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,1057 +860,1057 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.48</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.155151835991123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.44</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.188377869166965</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4.41E-2</v>
       </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.59235333273294899</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.18</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>60</v>
       </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.41398130409503903</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.27</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.301202601368947</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.44</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="E9" s="3">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
         <v>0.18763433465167001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.26</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.34396447385749701</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
         <v>0.29509175531195603</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>60</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
         <v>0.46178459335421101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.19</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>60</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
         <v>0.34150744846493403</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.05</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>60</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.52010266123535698</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>60</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.29745730851707602</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.44</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E16" s="3">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
         <v>0.14733780441702299</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.44</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.18048118486748599</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0.12</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.57584899661432998</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.17</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>60</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
         <v>0.378172629874586</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.24</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
         <v>0.293990070141462</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.45</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
         <v>0.181566467972468</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.25</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
         <v>0.32397609162030899</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.18</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
         <v>0.31873546905327399</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.45">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>60</v>
       </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
         <v>0.43760595964067001</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>60</v>
       </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
         <v>0.38874554258698202</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.03</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>60</v>
       </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.52205272759403198</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>60</v>
       </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
         <v>0.28320273987184602</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.45">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.54</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="E28" s="3">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
         <v>0.13676048425929899</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.54</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="E29" s="3">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="E29" s="2">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
         <v>0.14878525188091499</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.15</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="E30" s="3">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
         <v>8</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>0.47668392385931802</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.16</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="E31" s="3">
-        <v>20</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="E31" s="2">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
         <v>0.36809225055368899</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>0.26</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="E32" s="3">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="E32" s="2">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
         <v>0.28434716021732798</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.46</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>60</v>
       </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
         <v>0.17283694695509599</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.25</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E34" s="3">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="E34" s="2">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
         <v>0.307447481652664</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.2</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E35" s="3">
-        <v>20</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
         <v>0.30076415791857702</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>60</v>
       </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
         <v>0.40102686375880903</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>0.05</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>60</v>
       </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4">
         <v>0.44630797245978798</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>0.03</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>60</v>
       </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
         <v>0.50818792937721302</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="E39" s="3">
-        <v>20</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="E39" s="2">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
         <v>0.29640324136151103</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.52</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="E40" s="3">
-        <v>20</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="E40" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
         <v>0.14350250708434001</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.6</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="E41" s="3">
-        <v>20</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="2">
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
         <v>3</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>0.132486630648778</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>0.13</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="E42" s="3">
-        <v>20</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="E42" s="2">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
         <v>0.49293507293263999</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.12</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="E43" s="3">
-        <v>20</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4">
         <v>0.38470265887891397</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="E44" s="3">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
         <v>0.27611281873521898</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>0.48</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>60</v>
       </c>
-      <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4">
         <v>0.14459451198801501</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>0.25</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="E46" s="2">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
         <v>0.314398114794815</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>0.22</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="E47" s="3">
-        <v>20</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
         <v>0.27566682403162701</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.09</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>4.48E-2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>60</v>
       </c>
-      <c r="F48" s="3">
-        <v>2</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
         <v>0.39371542449117303</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>0.05</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>60</v>
       </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
         <v>0.47160678985818499</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="10"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>0.03</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>3.44E-2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>60</v>
       </c>
-      <c r="F50" s="3">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
         <v>0.51383299597169096</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="10"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="3">
-        <v>20</v>
-      </c>
-      <c r="F51" s="3">
-        <v>2</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="E51" s="2">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4">
         <v>0.316298735202663</v>
       </c>
     </row>
@@ -1751,266 +1924,331 @@
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A28:A39"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD831FFE-6B17-A54E-BEC8-19D74AE26691}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:52">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:52" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="B2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:52" s="17" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="B3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+    </row>
+    <row r="4" spans="1:52" ht="25" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:52" ht="25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:52" ht="25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:52" ht="25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:52" ht="25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="30">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:52" ht="25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="30">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:52" ht="25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:52" ht="25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2.47E-2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:52" ht="25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="30">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:52" ht="25" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="30">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:52" ht="25" customHeight="1" thickBot="1">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.45">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.45">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.45">
-      <c r="A3" s="21"/>
-      <c r="B3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.45">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0.33889999999999998</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.45">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="26">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.45">
-      <c r="A6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.45">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1.37E-2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.45">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2.3199999999999998E-2</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="26">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.45">
-      <c r="A9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="26">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="26">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.45">
-      <c r="A10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="26">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.45">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="26">
-        <v>2.47E-2</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0.32240000000000002</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.45">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="26">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26">
-        <v>2.07E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.45">
-      <c r="A13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1.01E-2</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.45">
-      <c r="A14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="26">
-        <v>2.41E-2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.45">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2024,160 +2262,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB765C62-4DFB-EA4A-9176-EE7FDF73C36D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="1"/>
+    <col min="2" max="2" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.796875" style="23"/>
+    <col min="10" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" ht="33" customHeight="1" thickBot="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16">
+      <c r="C6" s="30">
         <v>0.86080000000000001</v>
       </c>
-      <c r="C3" s="16">
+      <c r="D6" s="32">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16">
+      <c r="C7" s="30">
         <v>0.85370000000000001</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D7" s="32">
         <v>4.2500000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16">
+      <c r="C8" s="30">
         <v>0.94740000000000002</v>
       </c>
-      <c r="C5" s="16">
+      <c r="D8" s="32">
         <v>0.26919999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16">
+      <c r="C9" s="30">
         <v>0.9647</v>
       </c>
-      <c r="C6" s="16">
+      <c r="D9" s="32">
         <v>1.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="C10" s="30">
         <v>0.92820000000000003</v>
       </c>
-      <c r="C7" s="16">
+      <c r="D10" s="32">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16">
+      <c r="C11" s="30">
         <v>0.89810000000000001</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D11" s="32">
         <v>1.49E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16">
+      <c r="C12" s="30">
         <v>0.93310000000000004</v>
       </c>
-      <c r="C9" s="16">
+      <c r="D12" s="32">
         <v>1.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="C13" s="30">
         <v>0.94</v>
       </c>
-      <c r="C10" s="16">
+      <c r="D13" s="32">
         <v>3.32E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="25" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16">
+      <c r="C14" s="33">
         <v>0.98799999999999999</v>
       </c>
-      <c r="C11" s="16">
+      <c r="D14" s="32">
         <v>2.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7.3300000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="25" customHeight="1" thickBot="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="17">
+      <c r="C15" s="34">
         <v>0.99480000000000002</v>
       </c>
-      <c r="C13" s="17">
+      <c r="D15" s="34">
         <v>2.5399999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
